--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Quantity</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Complete Shopping Card Link</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
     <t>Mosfet Driver MCP1407-E/P</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Resistor 1206 SMD  620 Ohm</t>
   </si>
   <si>
-    <t>from malectrics.eu</t>
-  </si>
-  <si>
     <t>P1 MCP1407</t>
   </si>
   <si>
@@ -329,6 +323,36 @@
   </si>
   <si>
     <t>279-3521150RFT</t>
+  </si>
+  <si>
+    <t>M3 Nylon Washers</t>
+  </si>
+  <si>
+    <t>M3x10 screw + nuts</t>
+  </si>
+  <si>
+    <t>M2x8 screws + nuts</t>
+  </si>
+  <si>
+    <t>for mosfets assembly</t>
+  </si>
+  <si>
+    <t>for u-alu ssembly</t>
+  </si>
+  <si>
+    <t>for welding cable</t>
+  </si>
+  <si>
+    <t>Arduino + Mosfet PCB</t>
+  </si>
+  <si>
+    <t>PCB Set</t>
+  </si>
+  <si>
+    <t>welding tip connection</t>
+  </si>
+  <si>
+    <t>Luster Terminal 16mm²</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I47"/>
+  <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1221,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1209,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>2</v>
@@ -1230,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="13">
         <v>2.76</v>
@@ -1252,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="48">
@@ -1272,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="48">
@@ -1294,10 +1318,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="9">
         <v>1.06</v>
@@ -1312,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10">
         <v>0.66300000000000003</v>
@@ -1333,13 +1357,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="9">
         <v>0.221</v>
@@ -1354,13 +1378,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="F11" s="59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="62">
@@ -1373,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="48">
@@ -1392,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="48">
@@ -1411,13 +1435,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="48">
@@ -1430,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="48">
@@ -1449,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="48">
@@ -1468,13 +1492,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="59" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>70</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="48">
@@ -1487,13 +1511,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="48">
@@ -1506,13 +1530,13 @@
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="59" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>76</v>
       </c>
       <c r="G19" s="10">
         <v>0.217</v>
@@ -1527,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="48">
@@ -1546,13 +1570,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="48">
@@ -1565,13 +1589,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="F22" s="59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" s="61">
         <v>0.17</v>
@@ -1586,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="G23" s="61"/>
       <c r="H23" s="62">
@@ -1605,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24" s="61"/>
       <c r="H24" s="62">
@@ -1624,13 +1648,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" s="9">
         <v>0.02</v>
@@ -1645,13 +1669,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" s="10">
         <v>0.02</v>
@@ -1666,13 +1690,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="59" t="s">
         <v>92</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>94</v>
       </c>
       <c r="G27" s="10">
         <v>0.02</v>
@@ -1687,13 +1711,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="63" t="s">
         <v>95</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="49">
@@ -1703,7 +1727,7 @@
     </row>
     <row r="29" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="31">
         <f>SUM(H5:H28)</f>
@@ -1712,7 +1736,7 @@
     </row>
     <row r="30" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H30" s="42">
         <f>H29*1.19</f>
@@ -1736,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>2</v>
@@ -1745,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,7 +1786,7 @@
         <v>2.15</v>
       </c>
       <c r="I33" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1771,7 +1795,7 @@
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="52"/>
       <c r="G34" s="53"/>
@@ -1779,7 +1803,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="I34" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1788,151 +1812,231 @@
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>20</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="11">
         <v>2</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="11">
-        <v>3</v>
+      <c r="H36" s="10">
+        <v>0.5</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="9" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="21" t="s">
+      <c r="H37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9">
+        <v>105</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11">
+        <v>3</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="17">
+        <v>2</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="9">
         <v>0.6</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H41" s="10">
         <v>1.2</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I41" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="23">
-        <v>1</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="6" t="s">
+    <row r="42" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10">
+        <v>2</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="23">
+        <v>1</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8">
+      <c r="G43" s="7"/>
+      <c r="H43" s="8">
         <v>1.95</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I43" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="25">
-        <v>1</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="27">
+    <row r="44" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="25">
+        <v>1</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="27">
         <v>5.8</v>
       </c>
-      <c r="I40" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-    </row>
-    <row r="42" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-    </row>
-    <row r="43" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="32" t="s">
+      <c r="I44" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="46" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
+    </row>
+    <row r="47" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="33">
+        <f>SUM(H33:H46)</f>
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="33">
-        <f>SUM(H33:H42)</f>
-        <v>21.830000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="33">
-        <f>SUM(H30,H43)</f>
-        <v>65.015100000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H49" s="33">
+        <f>SUM(H30,H47)</f>
+        <v>68.515100000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
   <si>
     <t>Quantity</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>Luster Terminal 16mm²</t>
+  </si>
+  <si>
+    <t>Foot Switch</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>300A Fuse</t>
+  </si>
+  <si>
+    <t>search on ebay for "ANL 300A fuse"</t>
   </si>
 </sst>
 </file>
@@ -725,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,9 +805,6 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,6 +906,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1202,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I51"/>
+  <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,13 +1242,13 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -1247,7 +1260,7 @@
       <c r="H4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="45"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="16">
@@ -1259,16 +1272,16 @@
       <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="13">
         <v>2.76</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>22.08</v>
       </c>
-      <c r="I5" s="46"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -1281,14 +1294,14 @@
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="48">
+      <c r="H6" s="47">
         <v>0.9</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -1301,14 +1314,14 @@
       <c r="E7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="48">
+      <c r="H7" s="47">
         <v>1.7</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="17">
@@ -1320,58 +1333,58 @@
       <c r="E8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="58" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="9">
         <v>1.06</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>2.12</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="17">
         <v>1</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="59" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="10">
         <v>0.66300000000000003</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="47">
         <v>0.81</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="17">
         <v>2</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="59" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="58" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="9">
         <v>0.221</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <v>0.44</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23">
@@ -1383,33 +1396,33 @@
       <c r="E11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="58" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="62">
+      <c r="H11" s="61">
         <v>0.62</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="59" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="58" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="48">
+      <c r="H12" s="47">
         <v>0.66</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17">
@@ -1421,14 +1434,14 @@
       <c r="E13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="58" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="48">
+      <c r="H13" s="47">
         <v>0.48</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="17">
@@ -1440,14 +1453,14 @@
       <c r="E14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="58" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="48">
+      <c r="H14" s="47">
         <v>0.09</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="17">
@@ -1459,14 +1472,14 @@
       <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="48">
+      <c r="H15" s="47">
         <v>0.34</v>
       </c>
-      <c r="I15" s="46"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="17">
@@ -1478,14 +1491,14 @@
       <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="58" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="48">
+      <c r="H16" s="47">
         <v>0.17</v>
       </c>
-      <c r="I16" s="46"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="17">
@@ -1497,14 +1510,14 @@
       <c r="E17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="58" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <v>0.1</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="17">
@@ -1516,14 +1529,14 @@
       <c r="E18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="58" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="48">
+      <c r="H18" s="47">
         <v>1.46</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="17">
@@ -1535,16 +1548,16 @@
       <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="58" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="10">
         <v>0.217</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="47">
         <v>2.17</v>
       </c>
-      <c r="I19" s="46"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="17">
@@ -1556,14 +1569,14 @@
       <c r="E20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="58" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="48">
+      <c r="H20" s="47">
         <v>0.11</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="17">
@@ -1575,14 +1588,14 @@
       <c r="E21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="58" t="s">
         <v>78</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="48">
+      <c r="H21" s="47">
         <v>0.26</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="23">
@@ -1594,16 +1607,16 @@
       <c r="E22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="60">
         <v>0.17</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="61">
         <v>0.51</v>
       </c>
-      <c r="I22" s="46"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="23">
@@ -1615,14 +1628,14 @@
       <c r="E23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62">
+      <c r="G23" s="60"/>
+      <c r="H23" s="61">
         <v>0.52</v>
       </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="23">
@@ -1637,32 +1650,32 @@
       <c r="F24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61">
         <v>0.12</v>
       </c>
-      <c r="I24" s="46"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="17">
         <v>10</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="58" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="9">
         <v>0.02</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="47">
         <v>0.2</v>
       </c>
-      <c r="I25" s="46"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="17">
@@ -1674,16 +1687,16 @@
       <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="58" t="s">
         <v>89</v>
       </c>
       <c r="G26" s="10">
         <v>0.02</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="47">
         <v>0.2</v>
       </c>
-      <c r="I26" s="46"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="17">
@@ -1695,16 +1708,16 @@
       <c r="E27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="58" t="s">
         <v>92</v>
       </c>
       <c r="G27" s="10">
         <v>0.02</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="47">
         <v>0.2</v>
       </c>
-      <c r="I27" s="46"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="18">
@@ -1716,29 +1729,29 @@
       <c r="E28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="49">
+      <c r="G28" s="63"/>
+      <c r="H28" s="48">
         <v>0.03</v>
       </c>
-      <c r="I28" s="46"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="30">
         <f>SUM(H5:H28)</f>
         <v>36.290000000000006</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f>H29*1.19</f>
         <v>43.185100000000006</v>
       </c>
@@ -1752,14 +1765,14 @@
       </c>
     </row>
     <row r="32" spans="3:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="58" t="s">
+      <c r="D32" s="55"/>
+      <c r="E32" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="57" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="14" t="s">
@@ -1768,41 +1781,41 @@
       <c r="H32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="57" t="s">
+      <c r="I32" s="56" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="50">
-        <v>1</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52" t="s">
+      <c r="C33" s="49">
+        <v>1</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54">
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53">
         <v>2.15</v>
       </c>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="65" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="50">
-        <v>1</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52" t="s">
+      <c r="C34" s="49">
+        <v>1</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54">
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53">
         <v>4.7300000000000004</v>
       </c>
-      <c r="I34" s="66" t="s">
+      <c r="I34" s="65" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1810,11 +1823,11 @@
       <c r="C35" s="17">
         <v>1</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="9"/>
@@ -1829,7 +1842,7 @@
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="9" t="s">
         <v>104</v>
       </c>
@@ -1848,7 +1861,7 @@
       <c r="C37" s="17">
         <v>8</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="9" t="s">
         <v>103</v>
       </c>
@@ -1867,7 +1880,7 @@
       <c r="C38" s="17">
         <v>8</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="9" t="s">
         <v>105</v>
       </c>
@@ -1886,7 +1899,7 @@
       <c r="C39" s="17">
         <v>1</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="9" t="s">
         <v>96</v>
       </c>
@@ -1905,7 +1918,7 @@
       <c r="C40" s="17">
         <v>1</v>
       </c>
-      <c r="D40" s="35"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="9" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1937,7 @@
       <c r="C41" s="17">
         <v>2</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="9" t="s">
         <v>17</v>
       </c>
@@ -1945,7 +1958,7 @@
       <c r="C42" s="17">
         <v>1</v>
       </c>
-      <c r="D42" s="35"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="9" t="s">
         <v>112</v>
       </c>
@@ -1964,7 +1977,7 @@
       <c r="C43" s="23">
         <v>1</v>
       </c>
-      <c r="D43" s="37"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="6" t="s">
         <v>10</v>
       </c>
@@ -1979,64 +1992,102 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="25">
-        <v>1</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="26" t="s">
+    <row r="44" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="23">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="27">
+      <c r="G44" s="7"/>
+      <c r="H44" s="8">
         <v>5.8</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="66" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-    </row>
-    <row r="46" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
-    </row>
-    <row r="47" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="32" t="s">
+      <c r="C45" s="23">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="25">
+        <v>1</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="27">
+        <v>2</v>
+      </c>
+      <c r="I46" s="67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
+    </row>
+    <row r="49" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="33">
-        <f>SUM(H33:H46)</f>
-        <v>25.33</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F49" s="3" t="s">
+      <c r="H49" s="32">
+        <f>SUM(H33:H48)</f>
+        <v>33.229999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="33">
-        <f>SUM(H30,H47)</f>
-        <v>68.515100000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H51" s="32">
+        <f>SUM(H30,H49)</f>
+        <v>76.415099999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="28" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>93</v>
@@ -1732,9 +1732,11 @@
       <c r="F28" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="63">
+        <v>0.02</v>
+      </c>
       <c r="H28" s="48">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="45"/>
     </row>
@@ -1744,7 +1746,7 @@
       </c>
       <c r="H29" s="30">
         <f>SUM(H5:H28)</f>
-        <v>36.290000000000006</v>
+        <v>36.460000000000008</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1753,7 +1755,7 @@
       </c>
       <c r="H30" s="41">
         <f>H29*1.19</f>
-        <v>43.185100000000006</v>
+        <v>43.387400000000007</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2083,7 +2085,7 @@
       </c>
       <c r="H51" s="32">
         <f>SUM(H30,H49)</f>
-        <v>76.415099999999995</v>
+        <v>76.617400000000004</v>
       </c>
     </row>
     <row r="52" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
   <si>
     <t>Quantity</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t>300A Fuse</t>
-  </si>
-  <si>
-    <t>search on ebay for "ANL 300A fuse"</t>
   </si>
 </sst>
 </file>
@@ -737,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,7 +906,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1217,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,8 +2043,8 @@
       <c r="H46" s="27">
         <v>2</v>
       </c>
-      <c r="I46" s="67" t="s">
-        <v>116</v>
+      <c r="I46" s="66" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -226,9 +226,6 @@
     <t>TVS</t>
   </si>
   <si>
-    <t>576-5.0SMDJ13A</t>
-  </si>
-  <si>
     <t>TVS Diode 14,4V 5kW</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>300A Fuse</t>
+  </si>
+  <si>
+    <t>625-5KP13A-E3</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,10 +1523,10 @@
         <v>69</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="58" t="s">
         <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="47">
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="58" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="G19" s="10">
         <v>0.217</v>
@@ -1563,10 +1563,10 @@
         <v>32</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="58" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>76</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="47">
@@ -1582,10 +1582,10 @@
         <v>31</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>78</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="47">
@@ -1598,13 +1598,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="58" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="60">
         <v>0.17</v>
@@ -1619,13 +1619,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="58" t="s">
         <v>83</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>84</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="61">
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
@@ -1660,10 +1660,10 @@
         <v>34</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="9">
         <v>0.02</v>
@@ -1678,13 +1678,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="10">
         <v>0.02</v>
@@ -1699,13 +1699,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="58" t="s">
         <v>91</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>92</v>
       </c>
       <c r="G27" s="10">
         <v>0.02</v>
@@ -1720,13 +1720,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="F28" s="62" t="s">
         <v>94</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>95</v>
       </c>
       <c r="G28" s="63">
         <v>0.02</v>
@@ -1797,7 +1797,7 @@
         <v>2.15</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="52"/>
@@ -1814,7 +1814,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,10 +1842,10 @@
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10">
@@ -1880,10 +1880,10 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10">
@@ -1899,10 +1899,10 @@
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="11">
@@ -1940,7 +1940,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" s="9">
         <v>0.6</v>
@@ -1958,10 +1958,10 @@
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10">
@@ -1996,10 +1996,10 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
@@ -2015,10 +2015,10 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
@@ -2034,10 +2034,10 @@
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="27">
@@ -2103,19 +2103,19 @@
     <hyperlink ref="F15" r:id="rId13" display="http://www.mouser.de/Search/ProductDetail.aspx?R=CDBA160-Gvirtualkey59960000virtualkey750-CDBA160-G"/>
     <hyperlink ref="F16" r:id="rId14" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MMSZ4687-E3-08virtualkey61370000virtualkey78-MMSZ4687-E3-08"/>
     <hyperlink ref="F17" r:id="rId15" display="http://www.mouser.de/Search/ProductDetail.aspx?R=BAV99LT1Gvirtualkey58410000virtualkey863-BAV99LT1G"/>
-    <hyperlink ref="F18" r:id="rId16" display="http://www.mouser.de/Search/ProductDetail.aspx?R=5.0SMDJ13Avirtualkey57610000virtualkey576-5.0SMDJ13A"/>
-    <hyperlink ref="F19" r:id="rId17" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F"/>
-    <hyperlink ref="F20" r:id="rId18" display="http://www.mouser.de/Search/ProductDetail.aspx?R=VJ1210Y104KXBTW1BCvirtualkey61340000virtualkey77-VJ1210Y104KXBTBC"/>
-    <hyperlink ref="F21" r:id="rId19" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD"/>
-    <hyperlink ref="F22" r:id="rId20" display="http://www.mouser.de/Search/ProductDetail.aspx?R=12103D103MAT2Avirtualkey58110000virtualkey581-12103D103MAT2A"/>
-    <hyperlink ref="F23" r:id="rId21" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S"/>
-    <hyperlink ref="F25" r:id="rId22" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0730RLvirtualkey60120000virtualkey603-RC1206FR-0730RL"/>
-    <hyperlink ref="F26" r:id="rId23" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-07620RLvirtualkey60120000virtualkey603-RC1206FR-07620RL"/>
-    <hyperlink ref="F27" r:id="rId24" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-073K3Lvirtualkey60120000virtualkey603-RC1206FR-073K3L"/>
-    <hyperlink ref="F28" r:id="rId25" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0710KLvirtualkey60120000virtualkey603-RC1206FR-0710KL"/>
-    <hyperlink ref="I33" r:id="rId26"/>
-    <hyperlink ref="I34" r:id="rId27"/>
-    <hyperlink ref="F24" r:id="rId28" display="https://www.mouser.de/Search/ProductDetail.aspx?R=3521150RFTvirtualkey50680000virtualkey279-3521150RFT"/>
+    <hyperlink ref="F19" r:id="rId16" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F"/>
+    <hyperlink ref="F20" r:id="rId17" display="http://www.mouser.de/Search/ProductDetail.aspx?R=VJ1210Y104KXBTW1BCvirtualkey61340000virtualkey77-VJ1210Y104KXBTBC"/>
+    <hyperlink ref="F21" r:id="rId18" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD"/>
+    <hyperlink ref="F22" r:id="rId19" display="http://www.mouser.de/Search/ProductDetail.aspx?R=12103D103MAT2Avirtualkey58110000virtualkey581-12103D103MAT2A"/>
+    <hyperlink ref="F23" r:id="rId20" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S"/>
+    <hyperlink ref="F25" r:id="rId21" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0730RLvirtualkey60120000virtualkey603-RC1206FR-0730RL"/>
+    <hyperlink ref="F26" r:id="rId22" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-07620RLvirtualkey60120000virtualkey603-RC1206FR-07620RL"/>
+    <hyperlink ref="F27" r:id="rId23" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-073K3Lvirtualkey60120000virtualkey603-RC1206FR-073K3L"/>
+    <hyperlink ref="F28" r:id="rId24" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0710KLvirtualkey60120000virtualkey603-RC1206FR-0710KL"/>
+    <hyperlink ref="I33" r:id="rId25"/>
+    <hyperlink ref="I34" r:id="rId26"/>
+    <hyperlink ref="F24" r:id="rId27" display="https://www.mouser.de/Search/ProductDetail.aspx?R=3521150RFTvirtualkey50680000virtualkey279-3521150RFT"/>
+    <hyperlink ref="F18" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -94,9 +94,6 @@
     <t>TOTAL COST</t>
   </si>
   <si>
-    <t>Mosfet IRFB 7437 40V 250A</t>
-  </si>
-  <si>
     <t>Resistor 1206 SMD  620 Ohm</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>625-5KP13A-E3</t>
+  </si>
+  <si>
+    <t>Mosfet IRFB 7430 40V 409A</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1230,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>2</v>
@@ -1263,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="64" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>36</v>
       </c>
       <c r="G5" s="13">
         <v>2.76</v>
@@ -1285,13 +1285,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="47">
@@ -1305,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="47">
@@ -1327,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9">
         <v>1.06</v>
@@ -1345,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="10">
         <v>0.66300000000000003</v>
@@ -1366,13 +1366,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="9">
         <v>0.221</v>
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="61">
@@ -1406,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="47">
@@ -1425,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="47">
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="47">
@@ -1463,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="47">
@@ -1482,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="47">
@@ -1501,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="58" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="47">
@@ -1520,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="47">
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>73</v>
       </c>
       <c r="G19" s="10">
         <v>0.217</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="58" t="s">
         <v>74</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>75</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="47">
@@ -1579,13 +1579,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>76</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>77</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="47">
@@ -1598,13 +1598,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="58" t="s">
         <v>78</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>79</v>
       </c>
       <c r="G22" s="60">
         <v>0.17</v>
@@ -1619,13 +1619,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="58" t="s">
         <v>82</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>83</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="61">
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
@@ -1657,13 +1657,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="9">
         <v>0.02</v>
@@ -1678,13 +1678,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="58" t="s">
         <v>87</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>88</v>
       </c>
       <c r="G26" s="10">
         <v>0.02</v>
@@ -1699,13 +1699,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="58" t="s">
         <v>90</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>91</v>
       </c>
       <c r="G27" s="10">
         <v>0.02</v>
@@ -1720,13 +1720,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="F28" s="62" t="s">
         <v>93</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>94</v>
       </c>
       <c r="G28" s="63">
         <v>0.02</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="30" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="41">
         <f>H29*1.19</f>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>2</v>
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>2.15</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="52"/>
@@ -1814,7 +1814,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,10 +1842,10 @@
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10">
@@ -1880,10 +1880,10 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10">
@@ -1899,10 +1899,10 @@
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="11">
@@ -1940,7 +1940,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="9">
         <v>0.6</v>
@@ -1958,10 +1958,10 @@
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10">
@@ -1996,10 +1996,10 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
@@ -2015,10 +2015,10 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
@@ -2034,10 +2034,10 @@
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="27">

--- a/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E383D9B49A6C82CDF2162132C0D0343A1DD7CE02" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1D66EF9B-E746-4732-8FA6-5B36FF9347C0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
   <si>
     <t>Quantity</t>
   </si>
@@ -301,15 +310,9 @@
     <t xml:space="preserve">1m 16 mm² flexible cable </t>
   </si>
   <si>
-    <t>OLED Diplay 128x64</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.banggood.com/ATmega328P-Nano-V3-Controller-Board-Compatible-Arduino-p-940937.html?p=KM22060681092012071U </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.banggood.com/0_96-Inch-4Pin-White-IIC-I2C-OLED-Display-Module-12864-LED-For-Arduino-p-958196.html?p=KM22060681092012071U </t>
-  </si>
-  <si>
     <t xml:space="preserve">local hardware Store or  https://malectrics.eu/ </t>
   </si>
   <si>
@@ -362,12 +365,21 @@
   </si>
   <si>
     <t>Mosfet IRFB 7430 40V 409A</t>
+  </si>
+  <si>
+    <t>OLED Diplay 0,96" 128x64</t>
+  </si>
+  <si>
+    <t>take care of correct pinout (GND - VCC - SCL - SDA)</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/0_96-Inch-12864-OLED-Module-4-Pin-IC-I2C-IIC-Communication-p-1219948.html?rmmds=search&amp;cur_warehouse=CN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -734,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,6 +917,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,7 +946,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1000,6 +1021,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1035,6 +1073,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1210,11 +1265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1277,7 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="85.5703125" customWidth="1"/>
@@ -1266,7 +1321,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>35</v>
@@ -1526,7 +1581,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="47">
@@ -1641,10 +1696,10 @@
         <v>83</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
@@ -1797,24 +1852,26 @@
         <v>2.15</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="49">
-        <v>1</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="51"/>
+      <c r="C34" s="67">
+        <v>1</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>115</v>
+      </c>
       <c r="G34" s="52"/>
       <c r="H34" s="53">
         <v>4.7300000000000004</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,10 +1899,10 @@
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10">
@@ -1861,10 +1918,10 @@
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10">
@@ -1880,10 +1937,10 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10">
@@ -1902,7 +1959,7 @@
         <v>94</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="11">
@@ -1940,7 +1997,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G41" s="9">
         <v>0.6</v>
@@ -1958,10 +2015,10 @@
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10">
@@ -1996,10 +2053,10 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
@@ -2015,10 +2072,10 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
@@ -2034,10 +2091,10 @@
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="27">
@@ -2088,34 +2145,34 @@
     <row r="53" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="F35" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3" display="http://www.mouser.de/Search/ProductDetail.aspx?R=IRFB7430PBFvirtualkey57370000virtualkey942-IRFB7430PBF"/>
-    <hyperlink ref="F6" r:id="rId4" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MCP1407-E%2fPvirtualkey57940000virtualkey579-MCP1407-E%2fP"/>
-    <hyperlink ref="F7" r:id="rId5" display="http://www.mouser.de/Search/ProductDetail.aspx?R=PEC11L-4220F-S0015virtualkey65210000virtualkey652-PEC11L4220FS0015"/>
-    <hyperlink ref="F8" r:id="rId6" display="http://www.mouser.de/Search/ProductDetail.aspx?R=15Fx1-254mmvirtualkey58150000virtualkey992-15FX1-254MM"/>
-    <hyperlink ref="F9" r:id="rId7" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-008-10-001101virtualkey54370000virtualkey437-8018700810001101"/>
-    <hyperlink ref="F10" r:id="rId8" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-002-10-001101virtualkey54370000virtualkey437-8018700210001101"/>
-    <hyperlink ref="F11" r:id="rId9" display="http://www.mouser.de/Search/ProductDetail.aspx?R=929974-01-04-RKvirtualkey51750000virtualkey517-974-01-04-RK"/>
-    <hyperlink ref="F12" r:id="rId10" display="http://www.mouser.de/Search/ProductDetail.aspx?R=22-28-4160virtualkey53810000virtualkey538-22-28-4160"/>
-    <hyperlink ref="F13" r:id="rId11" display="http://www.mouser.de/Search/ProductDetail.aspx?R=61900211121virtualkey51110000virtualkey710-61900211121"/>
-    <hyperlink ref="F14" r:id="rId12" display="http://www.mouser.de/Search/ProductDetail.aspx?R=1-2199298-2virtualkey57100000virtualkey571-1-2199298-2"/>
-    <hyperlink ref="F15" r:id="rId13" display="http://www.mouser.de/Search/ProductDetail.aspx?R=CDBA160-Gvirtualkey59960000virtualkey750-CDBA160-G"/>
-    <hyperlink ref="F16" r:id="rId14" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MMSZ4687-E3-08virtualkey61370000virtualkey78-MMSZ4687-E3-08"/>
-    <hyperlink ref="F17" r:id="rId15" display="http://www.mouser.de/Search/ProductDetail.aspx?R=BAV99LT1Gvirtualkey58410000virtualkey863-BAV99LT1G"/>
-    <hyperlink ref="F19" r:id="rId16" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F"/>
-    <hyperlink ref="F20" r:id="rId17" display="http://www.mouser.de/Search/ProductDetail.aspx?R=VJ1210Y104KXBTW1BCvirtualkey61340000virtualkey77-VJ1210Y104KXBTBC"/>
-    <hyperlink ref="F21" r:id="rId18" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD"/>
-    <hyperlink ref="F22" r:id="rId19" display="http://www.mouser.de/Search/ProductDetail.aspx?R=12103D103MAT2Avirtualkey58110000virtualkey581-12103D103MAT2A"/>
-    <hyperlink ref="F23" r:id="rId20" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S"/>
-    <hyperlink ref="F25" r:id="rId21" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0730RLvirtualkey60120000virtualkey603-RC1206FR-0730RL"/>
-    <hyperlink ref="F26" r:id="rId22" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-07620RLvirtualkey60120000virtualkey603-RC1206FR-07620RL"/>
-    <hyperlink ref="F27" r:id="rId23" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-073K3Lvirtualkey60120000virtualkey603-RC1206FR-073K3L"/>
-    <hyperlink ref="F28" r:id="rId24" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0710KLvirtualkey60120000virtualkey603-RC1206FR-0710KL"/>
-    <hyperlink ref="I33" r:id="rId25"/>
-    <hyperlink ref="I34" r:id="rId26"/>
-    <hyperlink ref="F24" r:id="rId27" display="https://www.mouser.de/Search/ProductDetail.aspx?R=3521150RFTvirtualkey50680000virtualkey279-3521150RFT"/>
-    <hyperlink ref="F18" r:id="rId28"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" display="http://www.mouser.de/Search/ProductDetail.aspx?R=IRFB7430PBFvirtualkey57370000virtualkey942-IRFB7430PBF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MCP1407-E%2fPvirtualkey57940000virtualkey579-MCP1407-E%2fP" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" display="http://www.mouser.de/Search/ProductDetail.aspx?R=PEC11L-4220F-S0015virtualkey65210000virtualkey652-PEC11L4220FS0015" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId6" display="http://www.mouser.de/Search/ProductDetail.aspx?R=15Fx1-254mmvirtualkey58150000virtualkey992-15FX1-254MM" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F9" r:id="rId7" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-008-10-001101virtualkey54370000virtualkey437-8018700810001101" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId8" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-002-10-001101virtualkey54370000virtualkey437-8018700210001101" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId9" display="http://www.mouser.de/Search/ProductDetail.aspx?R=929974-01-04-RKvirtualkey51750000virtualkey517-974-01-04-RK" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" display="http://www.mouser.de/Search/ProductDetail.aspx?R=22-28-4160virtualkey53810000virtualkey538-22-28-4160" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId11" display="http://www.mouser.de/Search/ProductDetail.aspx?R=61900211121virtualkey51110000virtualkey710-61900211121" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId12" display="http://www.mouser.de/Search/ProductDetail.aspx?R=1-2199298-2virtualkey57100000virtualkey571-1-2199298-2" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" display="http://www.mouser.de/Search/ProductDetail.aspx?R=CDBA160-Gvirtualkey59960000virtualkey750-CDBA160-G" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F16" r:id="rId14" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MMSZ4687-E3-08virtualkey61370000virtualkey78-MMSZ4687-E3-08" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F17" r:id="rId15" display="http://www.mouser.de/Search/ProductDetail.aspx?R=BAV99LT1Gvirtualkey58410000virtualkey863-BAV99LT1G" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F19" r:id="rId16" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F20" r:id="rId17" display="http://www.mouser.de/Search/ProductDetail.aspx?R=VJ1210Y104KXBTW1BCvirtualkey61340000virtualkey77-VJ1210Y104KXBTBC" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F21" r:id="rId18" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F22" r:id="rId19" display="http://www.mouser.de/Search/ProductDetail.aspx?R=12103D103MAT2Avirtualkey58110000virtualkey581-12103D103MAT2A" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F23" r:id="rId20" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F25" r:id="rId21" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0730RLvirtualkey60120000virtualkey603-RC1206FR-0730RL" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F26" r:id="rId22" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-07620RLvirtualkey60120000virtualkey603-RC1206FR-07620RL" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F27" r:id="rId23" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-073K3Lvirtualkey60120000virtualkey603-RC1206FR-073K3L" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F28" r:id="rId24" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0710KLvirtualkey60120000virtualkey603-RC1206FR-0710KL" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F24" r:id="rId26" display="https://www.mouser.de/Search/ProductDetail.aspx?R=3521150RFTvirtualkey50680000virtualkey279-3521150RFT" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I34" r:id="rId28" xr:uid="{AFD1FD17-FE8A-48BB-ACC3-02BD0C7278B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
